--- a/scene_cat_exp_2023.2/input_files/19_scenecat_categorization_bedrooms_1.xlsx
+++ b/scene_cat_exp_2023.2/input_files/19_scenecat_categorization_bedrooms_1.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -497,29 +497,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_72fmj.png</t>
+          <t>stimuli/img_ncr40.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>53.87179487179487</v>
+        <v>75.66666666666667</v>
       </c>
       <c r="N2">
-        <v>36.02564102564103</v>
+        <v>54.27272727272727</v>
       </c>
       <c r="O2">
-        <v>44.94871794871795</v>
+        <v>64.96969696969697</v>
       </c>
       <c r="P2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,29 +565,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_fnu4h.png</t>
+          <t>stimuli/img_7pgd2.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>85.87179487179488</v>
+        <v>78.59375</v>
       </c>
       <c r="N3">
-        <v>70.71794871794872</v>
+        <v>57.84375</v>
       </c>
       <c r="O3">
-        <v>78.2948717948718</v>
+        <v>68.21875</v>
       </c>
       <c r="P3">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S3">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -633,20 +633,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_cgdyc.png</t>
+          <t>stimuli/img_84s7n.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>32.93023255813954</v>
+        <v>11.03125</v>
       </c>
       <c r="N4">
-        <v>14.04651162790698</v>
+        <v>2.90625</v>
       </c>
       <c r="O4">
-        <v>23.48837209302326</v>
+        <v>6.96875</v>
       </c>
       <c r="P4">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -686,44 +686,44 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_cmyvx.png</t>
+          <t>stimuli/img_fmgjx.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>64.25</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="N5">
-        <v>40.09375</v>
+        <v>56.975</v>
       </c>
       <c r="O5">
-        <v>52.171875</v>
+        <v>68.4375</v>
       </c>
       <c r="P5">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -754,44 +754,44 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_ic3os.png</t>
+          <t>stimuli/img_73pyk.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>84.79069767441861</v>
+        <v>69.27659574468085</v>
       </c>
       <c r="N6">
-        <v>66.16279069767442</v>
+        <v>47.27659574468085</v>
       </c>
       <c r="O6">
-        <v>75.47674418604652</v>
+        <v>58.27659574468085</v>
       </c>
       <c r="P6">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S6">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -837,29 +837,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_anzgh.png</t>
+          <t>stimuli/img_6nbgt.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>75.10526315789474</v>
+        <v>78.45161290322581</v>
       </c>
       <c r="N7">
-        <v>55.76315789473684</v>
+        <v>57.83870967741935</v>
       </c>
       <c r="O7">
-        <v>65.43421052631579</v>
+        <v>68.14516129032258</v>
       </c>
       <c r="P7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -905,29 +905,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_juob3.png</t>
+          <t>stimuli/img_xti0z.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>79.92105263157895</v>
+        <v>81.40625</v>
       </c>
       <c r="N8">
-        <v>59.78947368421053</v>
+        <v>61.4375</v>
       </c>
       <c r="O8">
-        <v>69.85526315789474</v>
+        <v>71.421875</v>
       </c>
       <c r="P8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S8">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -963,39 +963,39 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_q1ynd.png</t>
+          <t>stimuli/img_ua9bs.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>70.05714285714286</v>
+        <v>82</v>
       </c>
       <c r="N9">
-        <v>47.31428571428572</v>
+        <v>62.23333333333333</v>
       </c>
       <c r="O9">
-        <v>58.68571428571429</v>
+        <v>72.11666666666667</v>
       </c>
       <c r="P9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1041,29 +1041,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_16kib.png</t>
+          <t>stimuli/img_ca8kd.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>80.97727272727273</v>
+        <v>92.05405405405405</v>
       </c>
       <c r="N10">
-        <v>61.11363636363637</v>
+        <v>73.02702702702703</v>
       </c>
       <c r="O10">
-        <v>71.04545454545455</v>
+        <v>82.54054054054055</v>
       </c>
       <c r="P10">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S10">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1109,29 +1109,29 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_gbypq.png</t>
+          <t>stimuli/img_c79r7.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>76.27500000000001</v>
+        <v>56.26470588235294</v>
       </c>
       <c r="N11">
-        <v>51.925</v>
+        <v>34.26470588235294</v>
       </c>
       <c r="O11">
-        <v>64.09999999999999</v>
+        <v>45.26470588235294</v>
       </c>
       <c r="P11">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1177,29 +1177,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_ose78.png</t>
+          <t>stimuli/img_xesl0.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>80.19444444444444</v>
+        <v>69.28571428571429</v>
       </c>
       <c r="N12">
-        <v>60.25</v>
+        <v>47.35714285714285</v>
       </c>
       <c r="O12">
-        <v>70.22222222222223</v>
+        <v>58.32142857142857</v>
       </c>
       <c r="P12">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1230,44 +1230,44 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_gka64.png</t>
+          <t>stimuli/img_i2k07.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>19.23809523809524</v>
+        <v>64.25925925925925</v>
       </c>
       <c r="N13">
-        <v>20.02380952380953</v>
+        <v>40.92592592592592</v>
       </c>
       <c r="O13">
-        <v>19.63095238095238</v>
+        <v>52.59259259259259</v>
       </c>
       <c r="P13">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1303,30 +1303,30 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_eppte.png</t>
+          <t>stimuli/img_uy1n4.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>78.42424242424242</v>
+        <v>76.30555555555556</v>
       </c>
       <c r="N14">
-        <v>57.03030303030303</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="O14">
-        <v>67.72727272727272</v>
+        <v>65.81944444444444</v>
       </c>
       <c r="P14">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q14">
         <v>7</v>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1357,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1381,29 +1381,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_f4jxo.png</t>
+          <t>stimuli/img_s9are.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>82.91666666666667</v>
+        <v>90.14285714285714</v>
       </c>
       <c r="N15">
-        <v>65.52777777777777</v>
+        <v>75.22857142857143</v>
       </c>
       <c r="O15">
-        <v>74.22222222222223</v>
+        <v>82.68571428571428</v>
       </c>
       <c r="P15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S15">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1449,29 +1449,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_kzg3h.png</t>
+          <t>stimuli/img_j5rpx.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>77.02777777777777</v>
+        <v>72.24242424242425</v>
       </c>
       <c r="N16">
-        <v>56.22222222222222</v>
+        <v>50</v>
       </c>
       <c r="O16">
-        <v>66.625</v>
+        <v>61.12121212121212</v>
       </c>
       <c r="P16">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S16">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1517,29 +1517,29 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_411xa.png</t>
+          <t>stimuli/img_lpr0l.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>51.03030303030303</v>
+        <v>77.04651162790698</v>
       </c>
       <c r="N17">
-        <v>28.93939393939394</v>
+        <v>59.86046511627907</v>
       </c>
       <c r="O17">
-        <v>39.98484848484848</v>
+        <v>68.45348837209303</v>
       </c>
       <c r="P17">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1575,39 +1575,39 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_xguy9.png</t>
+          <t>stimuli/img_05flq.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>78.21621621621621</v>
+        <v>47.10344827586207</v>
       </c>
       <c r="N18">
-        <v>57.24324324324324</v>
+        <v>25.72413793103448</v>
       </c>
       <c r="O18">
-        <v>67.72972972972973</v>
+        <v>36.41379310344828</v>
       </c>
       <c r="P18">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1653,29 +1653,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_yteqw.png</t>
+          <t>stimuli/img_cv9qj.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>66.83783783783784</v>
+        <v>60.34375</v>
       </c>
       <c r="N19">
-        <v>43.78378378378378</v>
+        <v>35.34375</v>
       </c>
       <c r="O19">
-        <v>55.31081081081081</v>
+        <v>47.84375</v>
       </c>
       <c r="P19">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1697,7 +1697,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1721,29 +1721,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_aweye.png</t>
+          <t>stimuli/img_p659z.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>53.42105263157895</v>
+        <v>84.21621621621621</v>
       </c>
       <c r="N20">
-        <v>31.84210526315789</v>
+        <v>65.37837837837837</v>
       </c>
       <c r="O20">
-        <v>42.63157894736842</v>
+        <v>74.79729729729729</v>
       </c>
       <c r="P20">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1765,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_2pnl2.png</t>
+          <t>stimuli/img_bwo9g.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>6.621621621621622</v>
+        <v>64.81818181818181</v>
       </c>
       <c r="N21">
-        <v>7.135135135135135</v>
+        <v>42.36363636363637</v>
       </c>
       <c r="O21">
-        <v>6.878378378378379</v>
+        <v>53.59090909090909</v>
       </c>
       <c r="P21">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1857,29 +1857,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_3bxjb.png</t>
+          <t>stimuli/img_jz3kd.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>87.28571428571429</v>
+        <v>72.79411764705883</v>
       </c>
       <c r="N22">
-        <v>72.65714285714286</v>
+        <v>51.64705882352941</v>
       </c>
       <c r="O22">
-        <v>79.97142857142858</v>
+        <v>62.22058823529412</v>
       </c>
       <c r="P22">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S22">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1901,7 +1901,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1915,39 +1915,39 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_9pfbj.png</t>
+          <t>stimuli/img_9jgbc.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>91.27272727272727</v>
+        <v>40.30555555555556</v>
       </c>
       <c r="N23">
-        <v>80.09090909090909</v>
+        <v>24.08333333333333</v>
       </c>
       <c r="O23">
-        <v>85.68181818181819</v>
+        <v>32.19444444444444</v>
       </c>
       <c r="P23">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R23">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1993,29 +1993,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_1vq1v.png</t>
+          <t>stimuli/img_es7o2.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>69.42857142857143</v>
+        <v>52.48571428571429</v>
       </c>
       <c r="N24">
-        <v>46.59523809523809</v>
+        <v>27.54285714285714</v>
       </c>
       <c r="O24">
-        <v>58.01190476190476</v>
+        <v>40.01428571428572</v>
       </c>
       <c r="P24">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2037,7 +2037,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2046,44 +2046,44 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_t4hvr.png</t>
+          <t>stimuli/img_89dvt.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>61.69230769230769</v>
+        <v>81.09756097560975</v>
       </c>
       <c r="N25">
-        <v>39.76923076923077</v>
+        <v>64.6829268292683</v>
       </c>
       <c r="O25">
-        <v>50.73076923076923</v>
+        <v>72.89024390243902</v>
       </c>
       <c r="P25">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2105,7 +2105,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2129,29 +2129,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_z3yzz.png</t>
+          <t>stimuli/img_c0me7.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>71.71052631578948</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N26">
-        <v>49.81578947368421</v>
+        <v>45.62857142857143</v>
       </c>
       <c r="O26">
-        <v>60.76315789473685</v>
+        <v>57.01428571428572</v>
       </c>
       <c r="P26">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2164,7 +2164,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2173,7 +2173,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2197,29 +2197,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_jivhq.png</t>
+          <t>stimuli/img_ifebc.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="N27">
-        <v>22.26530612244898</v>
+        <v>65.88235294117646</v>
       </c>
       <c r="O27">
-        <v>29.63265306122449</v>
+        <v>74.94117647058823</v>
       </c>
       <c r="P27">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2/input_files/19_scenecat_categorization_bedrooms_1.xlsx
+++ b/scene_cat_exp_2023.2/input_files/19_scenecat_categorization_bedrooms_1.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -497,29 +497,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_ncr40.png</t>
+          <t>stimuli/img_eh0no.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>75.66666666666667</v>
+        <v>53.66666666666666</v>
       </c>
       <c r="N2">
-        <v>54.27272727272727</v>
+        <v>36.02564102564103</v>
       </c>
       <c r="O2">
-        <v>64.96969696969697</v>
+        <v>44.84615384615385</v>
       </c>
       <c r="P2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -565,29 +565,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_7pgd2.png</t>
+          <t>stimuli/img_6a0hu.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>78.59375</v>
+        <v>61.275</v>
       </c>
       <c r="N3">
-        <v>57.84375</v>
+        <v>42.025</v>
       </c>
       <c r="O3">
-        <v>68.21875</v>
+        <v>51.65</v>
       </c>
       <c r="P3">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -623,39 +623,39 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_84s7n.png</t>
+          <t>stimuli/img_cxpff.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>11.03125</v>
+        <v>74.92307692307692</v>
       </c>
       <c r="N4">
-        <v>2.90625</v>
+        <v>53.28205128205128</v>
       </c>
       <c r="O4">
-        <v>6.96875</v>
+        <v>64.1025641025641</v>
       </c>
       <c r="P4">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -691,39 +691,39 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_fmgjx.png</t>
+          <t>stimuli/img_w8yhd.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>79.90000000000001</v>
+        <v>55.74418604651163</v>
       </c>
       <c r="N5">
-        <v>56.975</v>
+        <v>38.90697674418605</v>
       </c>
       <c r="O5">
-        <v>68.4375</v>
+        <v>47.32558139534883</v>
       </c>
       <c r="P5">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -759,39 +759,39 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_73pyk.png</t>
+          <t>stimuli/img_amsgw.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>69.27659574468085</v>
+        <v>86.08510638297872</v>
       </c>
       <c r="N6">
-        <v>47.27659574468085</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="O6">
-        <v>58.27659574468085</v>
+        <v>76.02127659574468</v>
       </c>
       <c r="P6">
         <v>47</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -837,29 +837,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_6nbgt.png</t>
+          <t>stimuli/img_bbs77.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>78.45161290322581</v>
+        <v>31.64444444444445</v>
       </c>
       <c r="N7">
-        <v>57.83870967741935</v>
+        <v>21.26666666666667</v>
       </c>
       <c r="O7">
-        <v>68.14516129032258</v>
+        <v>26.45555555555556</v>
       </c>
       <c r="P7">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -881,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -905,29 +905,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_xti0z.png</t>
+          <t>stimuli/img_abobq.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>81.40625</v>
+        <v>75.18421052631579</v>
       </c>
       <c r="N8">
-        <v>61.4375</v>
+        <v>54.13157894736842</v>
       </c>
       <c r="O8">
-        <v>71.421875</v>
+        <v>64.65789473684211</v>
       </c>
       <c r="P8">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -958,44 +958,44 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_ua9bs.png</t>
+          <t>stimuli/img_fea1z.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>82</v>
+        <v>79.45945945945945</v>
       </c>
       <c r="N9">
-        <v>62.23333333333333</v>
+        <v>56.24324324324324</v>
       </c>
       <c r="O9">
-        <v>72.11666666666667</v>
+        <v>67.85135135135135</v>
       </c>
       <c r="P9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1017,7 +1017,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1041,29 +1041,29 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_ca8kd.png</t>
+          <t>stimuli/img_twj5p.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>92.05405405405405</v>
+        <v>67.71739130434783</v>
       </c>
       <c r="N10">
-        <v>73.02702702702703</v>
+        <v>42.08695652173913</v>
       </c>
       <c r="O10">
-        <v>82.54054054054055</v>
+        <v>54.90217391304348</v>
       </c>
       <c r="P10">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1085,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1109,29 +1109,29 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_c79r7.png</t>
+          <t>stimuli/img_kost0.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>56.26470588235294</v>
+        <v>63.09090909090909</v>
       </c>
       <c r="N11">
-        <v>34.26470588235294</v>
+        <v>42.77272727272727</v>
       </c>
       <c r="O11">
-        <v>45.26470588235294</v>
+        <v>52.93181818181819</v>
       </c>
       <c r="P11">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1177,29 +1177,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_xesl0.png</t>
+          <t>stimuli/img_cehin.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>69.28571428571429</v>
+        <v>78.86363636363636</v>
       </c>
       <c r="N12">
-        <v>47.35714285714285</v>
+        <v>60.02272727272727</v>
       </c>
       <c r="O12">
-        <v>58.32142857142857</v>
+        <v>69.44318181818181</v>
       </c>
       <c r="P12">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_i2k07.png</t>
+          <t>stimuli/img_0kqc0.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>64.25925925925925</v>
+        <v>43.74468085106383</v>
       </c>
       <c r="N13">
-        <v>40.92592592592592</v>
+        <v>27.14893617021277</v>
       </c>
       <c r="O13">
-        <v>52.59259259259259</v>
+        <v>35.4468085106383</v>
       </c>
       <c r="P13">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1303,39 +1303,39 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_uy1n4.png</t>
+          <t>stimuli/img_pt3d7.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>76.30555555555556</v>
+        <v>65.08571428571429</v>
       </c>
       <c r="N14">
-        <v>55.33333333333334</v>
+        <v>44.65714285714286</v>
       </c>
       <c r="O14">
-        <v>65.81944444444444</v>
+        <v>54.87142857142857</v>
       </c>
       <c r="P14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S14">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1357,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1381,29 +1381,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_s9are.png</t>
+          <t>stimuli/img_xu1p3.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>90.14285714285714</v>
+        <v>75.27659574468085</v>
       </c>
       <c r="N15">
-        <v>75.22857142857143</v>
+        <v>56.68085106382978</v>
       </c>
       <c r="O15">
-        <v>82.68571428571428</v>
+        <v>65.97872340425532</v>
       </c>
       <c r="P15">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S15">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1425,7 +1425,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1449,29 +1449,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_j5rpx.png</t>
+          <t>stimuli/img_xy930.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>72.24242424242425</v>
+        <v>70.5952380952381</v>
       </c>
       <c r="N16">
-        <v>50</v>
+        <v>49.47619047619047</v>
       </c>
       <c r="O16">
-        <v>61.12121212121212</v>
+        <v>60.03571428571429</v>
       </c>
       <c r="P16">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1517,29 +1517,29 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_lpr0l.png</t>
+          <t>stimuli/img_ys3qz.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>77.04651162790698</v>
+        <v>46.79545454545455</v>
       </c>
       <c r="N17">
-        <v>59.86046511627907</v>
+        <v>31.20454545454545</v>
       </c>
       <c r="O17">
-        <v>68.45348837209303</v>
+        <v>39</v>
       </c>
       <c r="P17">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1561,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1585,20 +1585,20 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_05flq.png</t>
+          <t>stimuli/img_xbtev.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>47.10344827586207</v>
+        <v>13.68181818181818</v>
       </c>
       <c r="N18">
-        <v>25.72413793103448</v>
+        <v>8.568181818181818</v>
       </c>
       <c r="O18">
-        <v>36.41379310344828</v>
+        <v>11.125</v>
       </c>
       <c r="P18">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1653,29 +1653,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_cv9qj.png</t>
+          <t>stimuli/img_6zz63.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>60.34375</v>
+        <v>87.66666666666667</v>
       </c>
       <c r="N19">
-        <v>35.34375</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="O19">
-        <v>47.84375</v>
+        <v>79.13333333333333</v>
       </c>
       <c r="P19">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1697,7 +1697,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1721,29 +1721,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_p659z.png</t>
+          <t>stimuli/img_wz6x5.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>84.21621621621621</v>
+        <v>68.3695652173913</v>
       </c>
       <c r="N20">
-        <v>65.37837837837837</v>
+        <v>48.47826086956522</v>
       </c>
       <c r="O20">
-        <v>74.79729729729729</v>
+        <v>58.42391304347826</v>
       </c>
       <c r="P20">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S20">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1765,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_bwo9g.png</t>
+          <t>stimuli/img_di6f0.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>64.81818181818181</v>
+        <v>94.04347826086956</v>
       </c>
       <c r="N21">
-        <v>42.36363636363637</v>
+        <v>83.34782608695652</v>
       </c>
       <c r="O21">
-        <v>53.59090909090909</v>
+        <v>88.69565217391303</v>
       </c>
       <c r="P21">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="Q21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S21">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1857,29 +1857,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_jz3kd.png</t>
+          <t>stimuli/img_pey7u.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>72.79411764705883</v>
+        <v>30.34883720930232</v>
       </c>
       <c r="N22">
-        <v>51.64705882352941</v>
+        <v>20.34883720930232</v>
       </c>
       <c r="O22">
-        <v>62.22058823529412</v>
+        <v>25.34883720930232</v>
       </c>
       <c r="P22">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1901,7 +1901,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1910,44 +1910,44 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_9jgbc.png</t>
+          <t>stimuli/img_bj99b.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>40.30555555555556</v>
+        <v>82.79069767441861</v>
       </c>
       <c r="N23">
-        <v>24.08333333333333</v>
+        <v>65.46511627906976</v>
       </c>
       <c r="O23">
-        <v>32.19444444444444</v>
+        <v>74.12790697674419</v>
       </c>
       <c r="P23">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1983,39 +1983,39 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_es7o2.png</t>
+          <t>stimuli/img_kugyw.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>52.48571428571429</v>
+        <v>74.25</v>
       </c>
       <c r="N24">
-        <v>27.54285714285714</v>
+        <v>54.10714285714285</v>
       </c>
       <c r="O24">
-        <v>40.01428571428572</v>
+        <v>64.17857142857143</v>
       </c>
       <c r="P24">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2028,7 +2028,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2037,7 +2037,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2051,30 +2051,30 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_89dvt.png</t>
+          <t>stimuli/img_16kib.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>81.09756097560975</v>
+        <v>80.97727272727273</v>
       </c>
       <c r="N25">
-        <v>64.6829268292683</v>
+        <v>61.11363636363637</v>
       </c>
       <c r="O25">
-        <v>72.89024390243902</v>
+        <v>71.04545454545455</v>
       </c>
       <c r="P25">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2105,7 +2105,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2129,29 +2129,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_c0me7.png</t>
+          <t>stimuli/img_4o8l0.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>68.40000000000001</v>
+        <v>46.02173913043478</v>
       </c>
       <c r="N26">
-        <v>45.62857142857143</v>
+        <v>31.45652173913043</v>
       </c>
       <c r="O26">
-        <v>57.01428571428572</v>
+        <v>38.73913043478261</v>
       </c>
       <c r="P26">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2164,7 +2164,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2173,7 +2173,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2197,29 +2197,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_ifebc.png</t>
+          <t>stimuli/img_wgkqa.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>84</v>
+        <v>87.25581395348837</v>
       </c>
       <c r="N27">
-        <v>65.88235294117646</v>
+        <v>71.13953488372093</v>
       </c>
       <c r="O27">
-        <v>74.94117647058823</v>
+        <v>79.19767441860465</v>
       </c>
       <c r="P27">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="Q27">
         <v>10</v>
       </c>
       <c r="R27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S27">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
